--- a/scripts/RestClient/delta/quadrat survey/data.xlsx
+++ b/scripts/RestClient/delta/quadrat survey/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kan088/Documents/Github/biocollect2/biocollect/scripts/RestClient/delta/quadrat survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94493659-8EE8-814E-B0B0-75CA2C62A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22753528-E00F-1F41-AC48-634508D11E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="5020" windowWidth="30940" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="5000" windowWidth="30940" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quadrat Sampling  Delta Enviro" sheetId="1" r:id="rId1"/>
@@ -2369,7 +2369,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E295" sqref="E295"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
